--- a/biology/Botanique/Farine_de_maïs/Farine_de_maïs.xlsx
+++ b/biology/Botanique/Farine_de_maïs/Farine_de_maïs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Farine_de_ma%C3%AFs</t>
+          <t>Farine_de_maïs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La farine de maïs est une farine obtenue par mouture sèche de grains de maïs.
-Selon le degré de finesse de la mouture des grains de maïs[1], on obtient (du plus épais au plus fin) : des hominys, des gritz (malt à bière), des semoules, des farines, de la fécule ou amidon (voir Maïzena). La farine de maïs est un aliment de base dans de nombreuses régions du monde. Elle peut servir à la fabrication de pain, de galettes, ainsi que d'autres spécialités comme la tortilla mexicaine ou la polenta italienne.
+Selon le degré de finesse de la mouture des grains de maïs, on obtient (du plus épais au plus fin) : des hominys, des gritz (malt à bière), des semoules, des farines, de la fécule ou amidon (voir Maïzena). La farine de maïs est un aliment de base dans de nombreuses régions du monde. Elle peut servir à la fabrication de pain, de galettes, ainsi que d'autres spécialités comme la tortilla mexicaine ou la polenta italienne.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Farine_de_ma%C3%AFs</t>
+          <t>Farine_de_maïs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Amidon</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Par habitude historique, l'amidon des tubercules, racines, tiges, et grains de certaines plantes, porte le nom de « fécule » (exemple : fécule de pomme de terre).
 La différence entre la farine et la fécule est liée à la composition du produit : la farine est faite à partir de la mouture de la totalité de la graine (amidon + germe + enveloppe du grain), alors que la fécule ne contient que de l'amidon, ce qui donne une poudre plus fine, constituant un excellent liant pour les sauces par exemple. C'est ce « filtrage » qui fait que certaines marques appellent leur amidon « fleur de maïs ».
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Farine_de_ma%C3%AFs</t>
+          <t>Farine_de_maïs</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La majeure partie du produit de la mouture des graines de céréales est un glucide complexe appelé « amidon ».
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Farine_de_ma%C3%AFs</t>
+          <t>Farine_de_maïs</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La protéine du maïs, la zéine [Zea Mays en latin], ne contient pas de gluten. 
 La farine de maïs est également l'ingrédient principal du nshima, un plat proche de la polenta qui se présente sous forme de purée blanche, et qui constitue la base de l’alimentation quotidienne de certains pays d'Afrique de l'Est comme la Zambie, le Malawi ou le Kenya.
